--- a/Dokumentointikansio/Testausdokumentti.xlsx
+++ b/Dokumentointikansio/Testausdokumentti.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Luokka</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>pelaaKierros()</t>
+  </si>
+  <si>
+    <t>LautaKasittelija</t>
+  </si>
+  <si>
+    <t>luePelaajanSiirto(String nimi)</t>
   </si>
 </sst>
 </file>
@@ -209,15 +215,15 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
+      <selection activeCell="D11" activeCellId="0" pane="topLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.3372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.1803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.0705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.5725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.478431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.5490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="36.85" outlineLevel="0" r="1" s="3">
@@ -333,10 +339,32 @@
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="9" s="3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="10" s="3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="11" s="3">
       <c r="A11" s="4"/>
@@ -478,7 +506,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -503,7 +531,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
